--- a/prevention/StructureDefinition-klgateway-119-citizen.xlsx
+++ b/prevention/StructureDefinition-klgateway-119-citizen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T10:04:53+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/StructureDefinition-klgateway-119-citizen.xlsx
+++ b/prevention/StructureDefinition-klgateway-119-citizen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-21T13:40:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/StructureDefinition-klgateway-119-citizen.xlsx
+++ b/prevention/StructureDefinition-klgateway-119-citizen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:40:09+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/StructureDefinition-klgateway-119-citizen.xlsx
+++ b/prevention/StructureDefinition-klgateway-119-citizen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-24T12:38:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
